--- a/sample_data/organizations_excel_small.xlsx
+++ b/sample_data/organizations_excel_small.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\langchain_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\langchain_python\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8574FC43-D677-49FF-99E1-7156DDE6F122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F556CA6-A6A8-4D6C-9D8E-64C66477EBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organizations" sheetId="1" r:id="rId1"/>
+    <sheet name="new_orgs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Index</t>
   </si>
@@ -101,6 +102,15 @@
   </si>
   <si>
     <t>Apparel / Fashion</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Org Name</t>
+  </si>
+  <si>
+    <t>URLS</t>
   </si>
 </sst>
 </file>
@@ -944,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I752"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD1001"/>
     </sheetView>
   </sheetViews>
@@ -1076,4 +1086,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060D6297-4F1F-446A-8999-7FBAF12CA44C}">
+  <dimension ref="A1:D752"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000000000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2000000000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3000000000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B752" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>